--- a/tài liệu/Danh sach linh kien tu dieu khien 2 phong UV va Sensor nhan dien khu sach do.xlsx
+++ b/tài liệu/Danh sach linh kien tu dieu khien 2 phong UV va Sensor nhan dien khu sach do.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ATSH_BINHTHUAN\tài liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATSH_BINHTHUAN\tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
   </bookViews>
   <sheets>
     <sheet name="DS_LinhKien_PhongUV" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -206,9 +206,6 @@
     <t>4GB RAM</t>
   </si>
   <si>
-    <t>H500 x W400 x D200</t>
-  </si>
-  <si>
     <t>tủ điện sắt 2 lớp cánh</t>
   </si>
   <si>
@@ -218,12 +215,6 @@
     <t>Domino nối dây điện</t>
   </si>
   <si>
-    <t>Relay Thời Gian Timer Omron H3Y-2 8P 220V</t>
-  </si>
-  <si>
-    <t>220V 60P</t>
-  </si>
-  <si>
     <t>RELAY KIẾNG 14 CHÂN - 220VAC - 5A</t>
   </si>
   <si>
@@ -233,12 +224,6 @@
     <t>Nguồn tổ ong 24V5A</t>
   </si>
   <si>
-    <t>CRSL-302A1</t>
-  </si>
-  <si>
-    <t>Công tắc xoay 3 vị trí</t>
-  </si>
-  <si>
     <t>BOARD LẬP TRÌNH ESP32 CÔNG NGHIỆP VER-2022</t>
   </si>
   <si>
@@ -260,9 +245,6 @@
     <t>Raspberry pi 4 model B, 4GB RAM</t>
   </si>
   <si>
-    <t>https://hanmyviet.vn/cong-tac-xoay-crsl-302a1.html</t>
-  </si>
-  <si>
     <t>https://linhkienchatluong.vn/nguon-xung---nguon-to-ong/nguon-to-ong-24v-5a-nguon-xung_sp918_ct6537.aspx</t>
   </si>
   <si>
@@ -294,6 +276,12 @@
   </si>
   <si>
     <t>https://smarthomeplus.vn/products/cam-bien-hang-rao-bao-dong-hong-ngoai-4-tia-tam-xa-300m-abh-300</t>
+  </si>
+  <si>
+    <t>túi</t>
+  </si>
+  <si>
+    <t>Kích thước: 400 x 600 x 300 m</t>
   </si>
 </sst>
 </file>
@@ -304,7 +292,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,12 +346,6 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -485,7 +467,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,20 +475,17 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,13 +495,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,6 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -543,6 +522,258 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -595,258 +826,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1095,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:J23" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:J20" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <tableColumns count="10">
     <tableColumn id="1" name="STT" dataDxfId="22"/>
     <tableColumn id="2" name="Tên linh kiện" dataDxfId="21"/>
@@ -1115,20 +1094,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A4:J15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A4:J15" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" name="STT" dataDxfId="10"/>
-    <tableColumn id="2" name="Tên linh kiện" dataDxfId="9"/>
-    <tableColumn id="3" name="Loại" dataDxfId="8"/>
-    <tableColumn id="4" name="Model" dataDxfId="7"/>
-    <tableColumn id="5" name="Số lượng" dataDxfId="6"/>
-    <tableColumn id="6" name="Đơn vị tính" dataDxfId="5"/>
-    <tableColumn id="7" name="Đơn giá" dataDxfId="4"/>
-    <tableColumn id="8" name="Thành tiền" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="1" name="STT" dataDxfId="9"/>
+    <tableColumn id="2" name="Tên linh kiện" dataDxfId="8"/>
+    <tableColumn id="3" name="Loại" dataDxfId="7"/>
+    <tableColumn id="4" name="Model" dataDxfId="6"/>
+    <tableColumn id="5" name="Số lượng" dataDxfId="5"/>
+    <tableColumn id="6" name="Đơn vị tính" dataDxfId="4"/>
+    <tableColumn id="7" name="Đơn giá" dataDxfId="3"/>
+    <tableColumn id="8" name="Thành tiền" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>G5*E5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ghi chú" dataDxfId="2"/>
-    <tableColumn id="10" name="Link sản phẩm" dataDxfId="1"/>
+    <tableColumn id="9" name="Ghi chú" dataDxfId="1"/>
+    <tableColumn id="10" name="Link sản phẩm" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1397,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1413,57 +1392,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -1483,74 +1462,78 @@
         <v>2800000</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>37</v>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
-        <v>700000</v>
+        <v>1680000</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H23" si="0">G6*E6</f>
-        <v>700000</v>
+        <f>G6*E6</f>
+        <v>1680000</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>88000</v>
+        <v>150000</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>176000</v>
+        <f t="shared" ref="H7" si="0">G7*E7</f>
+        <v>150000</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
+      <c r="D8" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1559,439 +1542,362 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>81000</v>
+        <v>600000</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>81000</v>
+        <f t="shared" ref="H8" si="1">G8*E8</f>
+        <v>600000</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1">
+        <v>88000</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H20" si="2">G9*E9</f>
+        <v>176000</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
         <v>81000</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>324000</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>81000</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1">
-        <v>28000</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>180000</v>
+        <f t="shared" si="2"/>
+        <v>2800</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>330000</v>
+        <v>30000</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>330000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>50000</v>
+        <v>330000</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>50000</v>
+        <f t="shared" si="2"/>
+        <v>330000</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="9" t="s">
-        <v>21</v>
+      <c r="J13" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>48</v>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>1680000</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>1680000</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="J15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <f t="shared" si="2"/>
+        <v>14000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="8" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>899000</v>
+        <v>1530</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>1798000</v>
+        <f t="shared" si="2"/>
+        <v>15300</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="J17" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
-        <v>14000</v>
+        <v>882000</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>1400000</v>
+        <f t="shared" si="2"/>
+        <v>882000</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="9" t="s">
-        <v>31</v>
+      <c r="J18" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G19" s="1">
-        <v>1530</v>
+        <v>899000</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>15300</v>
+        <f>G19*E19</f>
+        <v>1798000</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="9" t="s">
-        <v>35</v>
+      <c r="J19" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>35000</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>70000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1">
-        <v>882000</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>882000</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15">
-        <f>SUM(H5:H23)</f>
-        <v>10645100</v>
+      <c r="A21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="14">
+        <f>SUM(H5:H20)</f>
+        <v>8705100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1"/>
@@ -2009,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2023,48 +1929,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2073,11 +1979,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="19" t="s">
-        <v>63</v>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2155,12 +2061,12 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>48</v>
+      <c r="B8" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2177,7 +2083,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2185,11 +2091,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2205,8 +2111,8 @@
         <v>150000</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="21" t="s">
-        <v>56</v>
+      <c r="J9" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2246,11 +2152,11 @@
         <v>30</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -2260,7 +2166,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>14000</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
@@ -2300,18 +2206,18 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>57</v>
+      <c r="B13" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>882000</v>
@@ -2322,25 +2228,25 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>64</v>
+      <c r="B14" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>1200000</v>
@@ -2351,7 +2257,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2372,18 +2278,18 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15">
+      <c r="A16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="14">
         <f>SUM(H5:H15)</f>
-        <v>6699100</v>
+        <v>5313100</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
